--- a/data/trans_dic/P25_10-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P25_10-Estudios-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,12 +527,15 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que padece varices en las piernas</t>
+          <t>Población que padece varices en las piernas (tasa de respuesta: 99,92%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -542,20 +546,23 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -577,32 +584,47 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -618,6 +640,9 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -632,47 +657,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>6,44%</t>
+          <t>7,89%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>13,42%</t>
+          <t>12,46%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>3,76%</t>
+          <t>3,57%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>36,58%</t>
+          <t>13,78%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>30,45%</t>
+          <t>38,08%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>26,47%</t>
+          <t>34,97%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>22,51%</t>
+          <t>35,78%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>23,03%</t>
+          <t>43,37%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>16,68%</t>
+          <t>23,62%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>24,23%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>20,23%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>29,83%</t>
         </is>
       </c>
     </row>
@@ -685,47 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>2,57; 13,48</t>
+          <t>1,97; 19,84</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>6,96; 21,94</t>
+          <t>3,77; 26,02</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,97; 8,92</t>
+          <t>0,0; 12,16</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>27,1; 45,12</t>
+          <t>4,14; 27,21</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>21,24; 39,16</t>
+          <t>25,56; 53,88</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>16,46; 35,67</t>
+          <t>22,64; 48,56</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>16,12; 28,6</t>
+          <t>22,41; 50,4</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>17,51; 29,85</t>
+          <t>27,19; 58,54</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>11,36; 22,37</t>
+          <t>15,11; 34,1</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>15,69; 35,16</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>11,57; 31,15</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>18,11; 43,1</t>
         </is>
       </c>
     </row>
@@ -742,47 +797,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>6,48%</t>
+          <t>6,72%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>4,37%</t>
+          <t>4,4%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>7,01%</t>
+          <t>6,05%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>27,66%</t>
+          <t>8,55%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>19,96%</t>
+          <t>29,32%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>19,57%</t>
+          <t>21,48%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>17,46%</t>
+          <t>22,79%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>12,15%</t>
+          <t>30,12%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>13,03%</t>
+          <t>18,46%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>12,99%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>14,16%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>19,1%</t>
         </is>
       </c>
     </row>
@@ -795,47 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>3,9; 10,48</t>
+          <t>3,53; 11,86</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>2,53; 7,04</t>
+          <t>1,99; 8,3</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>4,51; 11,0</t>
+          <t>3,41; 10,48</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>22,73; 33,05</t>
+          <t>4,84; 14,85</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>16,13; 25,1</t>
+          <t>23,17; 36,01</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>15,28; 24,55</t>
+          <t>15,66; 27,09</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>14,49; 21,08</t>
+          <t>16,96; 28,91</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>9,65; 14,87</t>
+          <t>23,17; 37,31</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>10,61; 16,17</t>
+          <t>14,24; 22,96</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>9,57; 16,55</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>10,95; 18,05</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>14,74; 23,61</t>
         </is>
       </c>
     </row>
@@ -852,47 +937,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>4,24%</t>
+          <t>5,54%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>3,13%</t>
+          <t>3,62%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>4,23%</t>
+          <t>4,05%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>18,17%</t>
+          <t>6,67%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>18,34%</t>
+          <t>17,48%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>14,43%</t>
+          <t>18,4%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>11,77%</t>
+          <t>12,4%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>11,26%</t>
+          <t>20,45%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>9,57%</t>
+          <t>12,28%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>11,75%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>8,58%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>13,98%</t>
         </is>
       </c>
     </row>
@@ -905,54 +1005,69 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>2,09; 7,78</t>
+          <t>2,62; 10,86</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>1,37; 6,07</t>
+          <t>1,39; 8,34</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>1,98; 7,32</t>
+          <t>1,81; 8,84</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>14,04; 22,87</t>
+          <t>3,47; 12,73</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>14,08; 23,24</t>
+          <t>12,84; 23,67</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>10,67; 19,24</t>
+          <t>13,17; 24,34</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>9,03; 14,66</t>
+          <t>7,46; 17,81</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>8,63; 14,3</t>
+          <t>14,56; 26,77</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>7,04; 12,3</t>
+          <t>8,87; 16,28</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>8,43; 15,71</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>5,84; 11,96</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>9,95; 18,0</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -962,47 +1077,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>5,74%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>5,36%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>5,65%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>25,96%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>21,33%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>19,3%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>16,42%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>13,7%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>12,61%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1015,60 +1145,1431 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>4,14; 8,12</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>3,9; 7,29</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>3,95; 7,8</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>22,87; 29,6</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>18,43; 24,6</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>16,23; 22,63</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>14,26; 18,49</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>11,91; 15,81</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>10,7; 14,56</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>6,45%</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>5,22%</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>4,99%</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>8,81%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>25,6%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>22,07%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>20,61%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>29,15%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>16,74%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>14,05%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>12,97%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>19,25%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>4,1; 9,73</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>3,35; 8,0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>3,15; 7,64</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>5,93; 12,36</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>21,58; 30,38</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>18,56; 26,52</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>16,97; 24,89</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>24,24; 34,49</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>13,98; 19,48</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>11,65; 16,58</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>10,75; 15,77</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>16,11; 22,67</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="C1:E1"/>
+  <mergeCells count="9">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A10:A11"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="K1:N1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que padece varices en las piernas (tasa de respuesta: 99,92%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Hasta primaria</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>21.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>23.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>29.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>10174</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>13143</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>4073</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>24487</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>53358</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>40391</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>43785</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>91345</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>63532</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>53534</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>47859</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>115832</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>2539; 25572</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>3977; 27441</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>0; 13875</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>7357; 48328</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>35820; 75490</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>26146; 56086</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>27422; 61680</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>57270; 123293</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>40643; 91721</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>34679; 77700</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>27362; 73677</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>70314; 167332</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Secundaria o FP grado sup</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>55.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>40.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>43.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>52.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>66.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>48.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>55.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>67.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>28866</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>16546</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>24154</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>44196</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>136190</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>81825</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>85529</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>149002</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>165056</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>98371</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>109682</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>193197</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>15169; 50944</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>7475; 31234</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>13619; 41882</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>25015; 76734</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>107608; 167244</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>59638; 103167</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>63634; 108481</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>114613; 184557</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>127307; 205285</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>72479; 125293</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>84795; 139820</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>149092; 238790</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Estudios universitarios o más</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>31.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>34.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>23.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>36.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>39.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>39.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>29.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>45.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>18294</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>10217</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>11152</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>23566</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>74875</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>63431</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>40388</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>81686</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>93170</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>73648</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>51540</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>105251</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>8660; 35852</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>3935; 23546</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>4983; 24339</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>12249; 44960</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>54989; 101394</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>45377; 83895</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>24303; 58011</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>58182; 106938</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>67284; 123479</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>52832; 98499</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>35084; 71863</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>74898; 135519</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>23.0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>32.0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>105.0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>93.0</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>84.0</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>109.0</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>128.0</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>112.0</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>104.0</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>141.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>57335</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>39906</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>39379</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>92248</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>264423</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>185647</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>169702</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>322032</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>321758</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>225553</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>209081</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>414280</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>36430; 86431</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>25560; 61117</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>24844; 60266</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>62153; 129443</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>222969; 313858</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>156094; 223038</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>139671; 204882</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>267819; 381070</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>268593; 374333</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>186970; 266136</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>173344; 254239</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>346680; 487905</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
